--- a/results/Final Results GA vs. NLS.xlsx
+++ b/results/Final Results GA vs. NLS.xlsx
@@ -28,7 +28,7 @@
     <t>Methods</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue text indicates that an inconclusive case </t>
+    <t>Blue text indicates an inconclusive case,</t>
   </si>
   <si>
     <t>alpha</t>
@@ -247,7 +247,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -359,7 +359,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -16879,42 +16879,42 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -17919,16 +17919,16 @@
       <c r="D34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="3">
         <v>13.59022978</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="3">
         <v>0.19714817</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="3">
         <v>1.18719896</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="41"/>
       <c r="I34" s="2" t="s">
         <v>28</v>
       </c>
@@ -34200,42 +34200,42 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -52600,42 +52600,42 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -71000,42 +71000,42 @@
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/results/Final Results GA vs. NLS.xlsx
+++ b/results/Final Results GA vs. NLS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="37">
   <si>
     <t>Path</t>
   </si>
@@ -52681,7 +52681,9 @@
         <v>23</v>
       </c>
       <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="33"/>
@@ -52706,7 +52708,9 @@
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
@@ -52772,10 +52776,9 @@
       <c r="L4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="17"/>
@@ -52805,10 +52808,9 @@
         <v>3.0</v>
       </c>
       <c r="L5" s="34"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
+      <c r="M5" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
@@ -70982,7 +70984,7 @@
       <c r="P968" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="60">
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="A33:A35"/>
@@ -71010,8 +71012,10 @@
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
